--- a/natmiOut/OldD4/LR-pairs_lrc2p/L1cam-Ptprz1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/L1cam-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,184 +531,184 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H2">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="I2">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J2">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>5.1567672601022</v>
+        <v>0.006601</v>
       </c>
       <c r="N2">
-        <v>5.1567672601022</v>
+        <v>0.019803</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.0009255397585646605</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.001383055057785483</v>
       </c>
       <c r="Q2">
-        <v>40.71605839436158</v>
+        <v>0.05589344822133334</v>
       </c>
       <c r="R2">
-        <v>40.71605839436158</v>
+        <v>0.5030410339920001</v>
       </c>
       <c r="S2">
-        <v>0.2740832302426847</v>
+        <v>0.0002529009008315817</v>
       </c>
       <c r="T2">
-        <v>0.2740832302426847</v>
+        <v>0.0004326200369992795</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.307202658978419</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H3">
-        <v>0.307202658978419</v>
+        <v>25.402264</v>
       </c>
       <c r="I3">
-        <v>0.01066397791042518</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J3">
-        <v>0.01066397791042518</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>5.1567672601022</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N3">
-        <v>5.1567672601022</v>
+        <v>0.049159</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.00229756142964602</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.003433298166221107</v>
       </c>
       <c r="Q3">
-        <v>1.584172614036252</v>
+        <v>0.1387499884417778</v>
       </c>
       <c r="R3">
-        <v>1.584172614036252</v>
+        <v>1.248749895976</v>
       </c>
       <c r="S3">
-        <v>0.01066397791042518</v>
+        <v>0.0006278016151077978</v>
       </c>
       <c r="T3">
-        <v>0.01066397791042518</v>
+        <v>0.001073936696401938</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.71494890149125</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H4">
-        <v>3.71494890149125</v>
+        <v>25.402264</v>
       </c>
       <c r="I4">
-        <v>0.1289576501570711</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J4">
-        <v>0.1289576501570711</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>5.1567672601022</v>
+        <v>0.03120566666666667</v>
       </c>
       <c r="N4">
-        <v>5.1567672601022</v>
+        <v>0.09361700000000001</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.004375410573021655</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.006538275278730677</v>
       </c>
       <c r="Q4">
-        <v>19.15712686816271</v>
+        <v>0.2642315276542223</v>
       </c>
       <c r="R4">
-        <v>19.15712686816271</v>
+        <v>2.378083748888</v>
       </c>
       <c r="S4">
-        <v>0.1289576501570711</v>
+        <v>0.001195567521746714</v>
       </c>
       <c r="T4">
-        <v>0.1289576501570711</v>
+        <v>0.00204517446870482</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,114 +720,1044 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.02548140520171</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H5">
-        <v>6.02548140520171</v>
+        <v>25.402264</v>
       </c>
       <c r="I5">
-        <v>0.2091635561307517</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J5">
-        <v>0.2091635561307517</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.1567672601022</v>
+        <v>7.0778615</v>
       </c>
       <c r="N5">
-        <v>5.1567672601022</v>
+        <v>14.155723</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9924014882387677</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9886453714972628</v>
       </c>
       <c r="Q5">
-        <v>31.07200523669877</v>
+        <v>59.93123545947867</v>
       </c>
       <c r="R5">
-        <v>31.07200523669877</v>
+        <v>359.587412756872</v>
       </c>
       <c r="S5">
-        <v>0.2091635561307517</v>
+        <v>0.2711706634314755</v>
       </c>
       <c r="T5">
-        <v>0.2091635561307517</v>
+        <v>0.30924856880329</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.3343473333333333</v>
+      </c>
+      <c r="H6">
+        <v>1.003042</v>
+      </c>
+      <c r="I6">
+        <v>0.01078951666043526</v>
+      </c>
+      <c r="J6">
+        <v>0.01235133366529898</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.006601</v>
+      </c>
+      <c r="N6">
+        <v>0.019803</v>
+      </c>
+      <c r="O6">
+        <v>0.0009255397585646605</v>
+      </c>
+      <c r="P6">
+        <v>0.001383055057785483</v>
+      </c>
+      <c r="Q6">
+        <v>0.002207026747333333</v>
+      </c>
+      <c r="R6">
+        <v>0.019863240726</v>
+      </c>
+      <c r="S6">
+        <v>9.986126644928628E-06</v>
+      </c>
+      <c r="T6">
+        <v>1.708257449618787E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.3343473333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.003042</v>
+      </c>
+      <c r="I7">
+        <v>0.01078951666043526</v>
+      </c>
+      <c r="J7">
+        <v>0.01235133366529898</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.01638633333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.049159</v>
+      </c>
+      <c r="O7">
+        <v>0.00229756142964602</v>
+      </c>
+      <c r="P7">
+        <v>0.003433298166221107</v>
+      </c>
+      <c r="Q7">
+        <v>0.005478726853111111</v>
+      </c>
+      <c r="R7">
+        <v>0.049308541678</v>
+      </c>
+      <c r="S7">
+        <v>2.478957732353918E-05</v>
+      </c>
+      <c r="T7">
+        <v>4.240581122345602E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.3343473333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.003042</v>
+      </c>
+      <c r="I8">
+        <v>0.01078951666043526</v>
+      </c>
+      <c r="J8">
+        <v>0.01235133366529898</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.004375410573021655</v>
+      </c>
+      <c r="P8">
+        <v>0.006538275278730677</v>
+      </c>
+      <c r="Q8">
+        <v>0.01043353143488889</v>
+      </c>
+      <c r="R8">
+        <v>0.093901782914</v>
+      </c>
+      <c r="S8">
+        <v>4.720856527386171E-05</v>
+      </c>
+      <c r="T8">
+        <v>8.075641956317829E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3343473333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.003042</v>
+      </c>
+      <c r="I9">
+        <v>0.01078951666043526</v>
+      </c>
+      <c r="J9">
+        <v>0.01235133366529898</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>7.0778615</v>
+      </c>
+      <c r="N9">
+        <v>14.155723</v>
+      </c>
+      <c r="O9">
+        <v>0.9924014882387677</v>
+      </c>
+      <c r="P9">
+        <v>0.9886453714972628</v>
+      </c>
+      <c r="Q9">
+        <v>2.366464118227666</v>
+      </c>
+      <c r="R9">
+        <v>14.198784709366</v>
+      </c>
+      <c r="S9">
+        <v>0.01070753239119293</v>
+      </c>
+      <c r="T9">
+        <v>0.01221108886001616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.140032333333333</v>
+      </c>
+      <c r="H10">
+        <v>12.420097</v>
+      </c>
+      <c r="I10">
+        <v>0.1336004309946363</v>
+      </c>
+      <c r="J10">
+        <v>0.1529395201819853</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.006601</v>
+      </c>
+      <c r="N10">
+        <v>0.019803</v>
+      </c>
+      <c r="O10">
+        <v>0.0009255397585646605</v>
+      </c>
+      <c r="P10">
+        <v>0.001383055057785483</v>
+      </c>
+      <c r="Q10">
+        <v>0.02732835343233333</v>
+      </c>
+      <c r="R10">
+        <v>0.245955180891</v>
+      </c>
+      <c r="S10">
+        <v>0.0001236525106469102</v>
+      </c>
+      <c r="T10">
+        <v>0.0002115237769229798</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.140032333333333</v>
+      </c>
+      <c r="H11">
+        <v>12.420097</v>
+      </c>
+      <c r="I11">
+        <v>0.1336004309946363</v>
+      </c>
+      <c r="J11">
+        <v>0.1529395201819853</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.01638633333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.049159</v>
+      </c>
+      <c r="O11">
+        <v>0.00229756142964602</v>
+      </c>
+      <c r="P11">
+        <v>0.003433298166221107</v>
+      </c>
+      <c r="Q11">
+        <v>0.06783994982477777</v>
+      </c>
+      <c r="R11">
+        <v>0.610559548423</v>
+      </c>
+      <c r="S11">
+        <v>0.0003069551972373609</v>
+      </c>
+      <c r="T11">
+        <v>0.000525086974183546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.140032333333333</v>
+      </c>
+      <c r="H12">
+        <v>12.420097</v>
+      </c>
+      <c r="I12">
+        <v>0.1336004309946363</v>
+      </c>
+      <c r="J12">
+        <v>0.1529395201819853</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.004375410573021655</v>
+      </c>
+      <c r="P12">
+        <v>0.006538275278730677</v>
+      </c>
+      <c r="Q12">
+        <v>0.1291924689832222</v>
+      </c>
+      <c r="R12">
+        <v>1.162732220849</v>
+      </c>
+      <c r="S12">
+        <v>0.0005845567383341815</v>
+      </c>
+      <c r="T12">
+        <v>0.0009999606839468059</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>10.8642222294207</v>
-      </c>
-      <c r="H6">
-        <v>10.8642222294207</v>
-      </c>
-      <c r="I6">
-        <v>0.3771315855590672</v>
-      </c>
-      <c r="J6">
-        <v>0.3771315855590672</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>5.1567672601022</v>
-      </c>
-      <c r="N6">
-        <v>5.1567672601022</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>56.02426549915119</v>
-      </c>
-      <c r="R6">
-        <v>56.02426549915119</v>
-      </c>
-      <c r="S6">
-        <v>0.3771315855590672</v>
-      </c>
-      <c r="T6">
-        <v>0.3771315855590672</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.140032333333333</v>
+      </c>
+      <c r="H13">
+        <v>12.420097</v>
+      </c>
+      <c r="I13">
+        <v>0.1336004309946363</v>
+      </c>
+      <c r="J13">
+        <v>0.1529395201819853</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.0778615</v>
+      </c>
+      <c r="N13">
+        <v>14.155723</v>
+      </c>
+      <c r="O13">
+        <v>0.9924014882387677</v>
+      </c>
+      <c r="P13">
+        <v>0.9886453714972628</v>
+      </c>
+      <c r="Q13">
+        <v>29.30257546085517</v>
+      </c>
+      <c r="R13">
+        <v>175.815452765131</v>
+      </c>
+      <c r="S13">
+        <v>0.1325852665484178</v>
+      </c>
+      <c r="T13">
+        <v>0.151202948746932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.291073</v>
+      </c>
+      <c r="H14">
+        <v>18.873219</v>
+      </c>
+      <c r="I14">
+        <v>0.2030153381778063</v>
+      </c>
+      <c r="J14">
+        <v>0.2324024569332694</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.006601</v>
+      </c>
+      <c r="N14">
+        <v>0.019803</v>
+      </c>
+      <c r="O14">
+        <v>0.0009255397585646605</v>
+      </c>
+      <c r="P14">
+        <v>0.001383055057785483</v>
+      </c>
+      <c r="Q14">
+        <v>0.041527372873</v>
+      </c>
+      <c r="R14">
+        <v>0.373746355857</v>
+      </c>
+      <c r="S14">
+        <v>0.0001878987670820098</v>
+      </c>
+      <c r="T14">
+        <v>0.0003214253935033312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.291073</v>
+      </c>
+      <c r="H15">
+        <v>18.873219</v>
+      </c>
+      <c r="I15">
+        <v>0.2030153381778063</v>
+      </c>
+      <c r="J15">
+        <v>0.2324024569332694</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.01638633333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.049159</v>
+      </c>
+      <c r="O15">
+        <v>0.00229756142964602</v>
+      </c>
+      <c r="P15">
+        <v>0.003433298166221107</v>
+      </c>
+      <c r="Q15">
+        <v>0.1030876192023333</v>
+      </c>
+      <c r="R15">
+        <v>0.927788572821</v>
+      </c>
+      <c r="S15">
+        <v>0.0004664402106238709</v>
+      </c>
+      <c r="T15">
+        <v>0.0007979069292142734</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.291073</v>
+      </c>
+      <c r="H16">
+        <v>18.873219</v>
+      </c>
+      <c r="I16">
+        <v>0.2030153381778063</v>
+      </c>
+      <c r="J16">
+        <v>0.2324024569332694</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.004375410573021655</v>
+      </c>
+      <c r="P16">
+        <v>0.006538275278730677</v>
+      </c>
+      <c r="Q16">
+        <v>0.1963171270136667</v>
+      </c>
+      <c r="R16">
+        <v>1.766854143123</v>
+      </c>
+      <c r="S16">
+        <v>0.0008882754571487406</v>
+      </c>
+      <c r="T16">
+        <v>0.001519511238883066</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.291073</v>
+      </c>
+      <c r="H17">
+        <v>18.873219</v>
+      </c>
+      <c r="I17">
+        <v>0.2030153381778063</v>
+      </c>
+      <c r="J17">
+        <v>0.2324024569332694</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>7.0778615</v>
+      </c>
+      <c r="N17">
+        <v>14.155723</v>
+      </c>
+      <c r="O17">
+        <v>0.9924014882387677</v>
+      </c>
+      <c r="P17">
+        <v>0.9886453714972628</v>
+      </c>
+      <c r="Q17">
+        <v>44.5273433803895</v>
+      </c>
+      <c r="R17">
+        <v>267.164060282337</v>
+      </c>
+      <c r="S17">
+        <v>0.2014727237429517</v>
+      </c>
+      <c r="T17">
+        <v>0.2297636133716687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>11.755292</v>
+      </c>
+      <c r="H18">
+        <v>23.510584</v>
+      </c>
+      <c r="I18">
+        <v>0.3793477806979606</v>
+      </c>
+      <c r="J18">
+        <v>0.2895063892140504</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.006601</v>
+      </c>
+      <c r="N18">
+        <v>0.019803</v>
+      </c>
+      <c r="O18">
+        <v>0.0009255397585646605</v>
+      </c>
+      <c r="P18">
+        <v>0.001383055057785483</v>
+      </c>
+      <c r="Q18">
+        <v>0.077596682492</v>
+      </c>
+      <c r="R18">
+        <v>0.465580094952</v>
+      </c>
+      <c r="S18">
+        <v>0.0003511014533592302</v>
+      </c>
+      <c r="T18">
+        <v>0.0004004032758637052</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>11.755292</v>
+      </c>
+      <c r="H19">
+        <v>23.510584</v>
+      </c>
+      <c r="I19">
+        <v>0.3793477806979606</v>
+      </c>
+      <c r="J19">
+        <v>0.2895063892140504</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.01638633333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.049159</v>
+      </c>
+      <c r="O19">
+        <v>0.00229756142964602</v>
+      </c>
+      <c r="P19">
+        <v>0.003433298166221107</v>
+      </c>
+      <c r="Q19">
+        <v>0.1926261331426666</v>
+      </c>
+      <c r="R19">
+        <v>1.155756798856</v>
+      </c>
+      <c r="S19">
+        <v>0.0008715748293534513</v>
+      </c>
+      <c r="T19">
+        <v>0.0009939617551978934</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>11.755292</v>
+      </c>
+      <c r="H20">
+        <v>23.510584</v>
+      </c>
+      <c r="I20">
+        <v>0.3793477806979606</v>
+      </c>
+      <c r="J20">
+        <v>0.2895063892140504</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.004375410573021655</v>
+      </c>
+      <c r="P20">
+        <v>0.006538275278730677</v>
+      </c>
+      <c r="Q20">
+        <v>0.3668317237213333</v>
+      </c>
+      <c r="R20">
+        <v>2.200990342328</v>
+      </c>
+      <c r="S20">
+        <v>0.001659802290518157</v>
+      </c>
+      <c r="T20">
+        <v>0.001892872467632807</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>11.755292</v>
+      </c>
+      <c r="H21">
+        <v>23.510584</v>
+      </c>
+      <c r="I21">
+        <v>0.3793477806979606</v>
+      </c>
+      <c r="J21">
+        <v>0.2895063892140504</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.0778615</v>
+      </c>
+      <c r="N21">
+        <v>14.155723</v>
+      </c>
+      <c r="O21">
+        <v>0.9924014882387677</v>
+      </c>
+      <c r="P21">
+        <v>0.9886453714972628</v>
+      </c>
+      <c r="Q21">
+        <v>83.20232866805799</v>
+      </c>
+      <c r="R21">
+        <v>332.8093146722319</v>
+      </c>
+      <c r="S21">
+        <v>0.3764653021247298</v>
+      </c>
+      <c r="T21">
+        <v>0.2862191517153561</v>
       </c>
     </row>
   </sheetData>
